--- a/_Out/Server/NFDataCfg/Excel_Ini/DescData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/DescData.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27030" windowHeight="16485"/>
+    <workbookView windowWidth="19455" windowHeight="9990"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ShowName</t>
@@ -44,13 +38,61 @@
   </si>
   <si>
     <t>DescText</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>名字字符串索引</t>
+  </si>
+  <si>
+    <t>ICON</t>
+  </si>
+  <si>
+    <t>图集</t>
+  </si>
+  <si>
+    <t>普主模型预设路径</t>
+  </si>
+  <si>
+    <t>使用时的特效</t>
+  </si>
+  <si>
+    <t>物品使用时声音</t>
+  </si>
+  <si>
+    <t>对此事务的描述意思</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -58,21 +100,365 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -80,33 +466,431 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -156,71 +940,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -438,14 +1222,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="3" width="9.375" customWidth="1"/>
@@ -472,276 +1257,416 @@
     <col min="28" max="28" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="1"/>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="1"/>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="1"/>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="1"/>
-      <c r="D61" s="1"/>
+    <row r="2" s="2" customFormat="1" spans="1:9">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:9">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="27.75" spans="1:9">
+      <c r="A7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="10"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="10"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="10"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="10"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="10"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="10"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="10"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="10"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="10"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="10"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="10"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="10"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="10"/>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="10"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="10"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="10"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="10"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="10"/>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="10"/>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="10"/>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="10"/>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="10"/>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="10"/>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="10"/>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="10"/>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="10"/>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="10"/>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="10"/>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="10"/>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="10"/>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="10"/>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="10"/>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="10"/>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="10"/>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="10"/>
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="10"/>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="10"/>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="10"/>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="10"/>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="10"/>
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="10"/>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="10"/>
+      <c r="D55" s="10"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="10"/>
+      <c r="D56" s="10"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="10"/>
+      <c r="D57" s="10"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="10"/>
+      <c r="D58" s="10"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="10"/>
+      <c r="D59" s="10"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="10"/>
+      <c r="D60" s="10"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="10"/>
+      <c r="D61" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6"/>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/DescData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/DescData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="9990"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
-    <t>ID</t>
+    <t>Id</t>
   </si>
   <si>
     <t>ShowName</t>
@@ -70,7 +70,7 @@
     <t>图集</t>
   </si>
   <si>
-    <t>普主模型预设路径</t>
+    <t>主模型预设路径</t>
   </si>
   <si>
     <t>使用时的特效</t>
@@ -87,12 +87,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -100,27 +100,73 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -129,30 +175,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,8 +206,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,6 +223,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -195,70 +244,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,13 +266,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,174 +446,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -467,92 +466,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,11 +501,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,23 +543,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,197 +563,177 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1224,13 +1124,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A2" sqref="$A2:$XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="3" width="9.375" customWidth="1"/>
@@ -1258,32 +1158,32 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:9">
+    <row r="2" s="2" customFormat="1" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1308,362 +1208,347 @@
       <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:9">
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:9">
+      <c r="B3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:8">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:9">
+      <c r="B4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:8">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:9">
+      <c r="B5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:8">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="27.75" spans="1:9">
-      <c r="A7" s="8" t="s">
+      <c r="B6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:8">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="A8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="A9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="A10" s="7"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="A11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="A12" s="7"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="A13" s="7"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="A14" s="7"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="A15" s="7"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="A16" s="7"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="A17" s="7"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="A18" s="7"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="A19" s="7"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="A20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="A21" s="7"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="A22" s="7"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="A23" s="7"/>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="A24" s="7"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="A25" s="7"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="A26" s="7"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="A27" s="7"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="10"/>
-      <c r="D28" s="10"/>
+      <c r="A28" s="7"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="A29" s="7"/>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="10"/>
-      <c r="D30" s="10"/>
+      <c r="A30" s="7"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="A31" s="7"/>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="10"/>
-      <c r="D32" s="10"/>
+      <c r="A32" s="7"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="10"/>
-      <c r="D33" s="10"/>
+      <c r="A33" s="7"/>
+      <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="A34" s="7"/>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="10"/>
-      <c r="D35" s="10"/>
+      <c r="A35" s="7"/>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="10"/>
-      <c r="D36" s="10"/>
+      <c r="A36" s="7"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="10"/>
-      <c r="D37" s="10"/>
+      <c r="A37" s="7"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="10"/>
-      <c r="D38" s="10"/>
+      <c r="A38" s="7"/>
+      <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="10"/>
-      <c r="D39" s="10"/>
+      <c r="A39" s="7"/>
+      <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="10"/>
-      <c r="D40" s="10"/>
+      <c r="A40" s="7"/>
+      <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="10"/>
-      <c r="D41" s="10"/>
+      <c r="A41" s="7"/>
+      <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="10"/>
-      <c r="D42" s="10"/>
+      <c r="A42" s="7"/>
+      <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="10"/>
-      <c r="D43" s="10"/>
+      <c r="A43" s="7"/>
+      <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="10"/>
-      <c r="D44" s="10"/>
+      <c r="A44" s="7"/>
+      <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="10"/>
-      <c r="D45" s="10"/>
+      <c r="A45" s="7"/>
+      <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="10"/>
-      <c r="D46" s="10"/>
+      <c r="A46" s="7"/>
+      <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="10"/>
-      <c r="D47" s="10"/>
+      <c r="A47" s="7"/>
+      <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="10"/>
-      <c r="D48" s="10"/>
+      <c r="A48" s="7"/>
+      <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="10"/>
-      <c r="D49" s="10"/>
+      <c r="A49" s="7"/>
+      <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="10"/>
-      <c r="D50" s="10"/>
+      <c r="A50" s="7"/>
+      <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="10"/>
-      <c r="D51" s="10"/>
+      <c r="A51" s="7"/>
+      <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="10"/>
-      <c r="D52" s="10"/>
+      <c r="A52" s="7"/>
+      <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="10"/>
-      <c r="D53" s="10"/>
+      <c r="A53" s="7"/>
+      <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="10"/>
-      <c r="D54" s="10"/>
+      <c r="A54" s="7"/>
+      <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="10"/>
-      <c r="D55" s="10"/>
+      <c r="A55" s="7"/>
+      <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="10"/>
-      <c r="D56" s="10"/>
+      <c r="A56" s="7"/>
+      <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="10"/>
-      <c r="D57" s="10"/>
+      <c r="A57" s="7"/>
+      <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="10"/>
-      <c r="D58" s="10"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="10"/>
-      <c r="D59" s="10"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="10"/>
-      <c r="D60" s="10"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="10"/>
-      <c r="D61" s="10"/>
+      <c r="A58" s="7"/>
+      <c r="D58" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:H6">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/DescData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/DescData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19455" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -87,12 +87,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -100,15 +100,97 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,54 +204,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,69 +243,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,13 +279,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,7 +417,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,19 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,134 +463,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -466,36 +473,121 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -516,17 +608,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,192 +660,189 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1127,7 +1236,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD7"/>
+      <selection activeCell="A1" sqref="$A1:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1157,391 +1266,391 @@
     <col min="28" max="28" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:8">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5" t="b">
+      <c r="B3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:8">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5" t="b">
+      <c r="B4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:8">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="b">
+      <c r="B5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:8">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:8">
-      <c r="A7" s="5" t="s">
+      <c r="B6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="27.75" spans="1:8">
+      <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="11"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="11"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="11"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="A12" s="11"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="11"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="11"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="A15" s="11"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="A16" s="11"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="A17" s="11"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="A18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="A19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="11"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="A21" s="11"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="A22" s="11"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="A23" s="11"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="A24" s="11"/>
+      <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="A25" s="11"/>
+      <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="A26" s="11"/>
+      <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="A27" s="11"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="A28" s="11"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="A29" s="11"/>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="A30" s="11"/>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="A31" s="11"/>
+      <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="A32" s="11"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="A33" s="11"/>
+      <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="A34" s="11"/>
+      <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="7"/>
-      <c r="D35" s="7"/>
+      <c r="A35" s="11"/>
+      <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="A36" s="11"/>
+      <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="A37" s="11"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="A38" s="11"/>
+      <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="7"/>
-      <c r="D39" s="7"/>
+      <c r="A39" s="11"/>
+      <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="7"/>
-      <c r="D40" s="7"/>
+      <c r="A40" s="11"/>
+      <c r="D40" s="11"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="A41" s="11"/>
+      <c r="D41" s="11"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="7"/>
-      <c r="D42" s="7"/>
+      <c r="A42" s="11"/>
+      <c r="D42" s="11"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="7"/>
-      <c r="D43" s="7"/>
+      <c r="A43" s="11"/>
+      <c r="D43" s="11"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="7"/>
-      <c r="D44" s="7"/>
+      <c r="A44" s="11"/>
+      <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="7"/>
-      <c r="D45" s="7"/>
+      <c r="A45" s="11"/>
+      <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="7"/>
-      <c r="D46" s="7"/>
+      <c r="A46" s="11"/>
+      <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="7"/>
-      <c r="D47" s="7"/>
+      <c r="A47" s="11"/>
+      <c r="D47" s="11"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="7"/>
-      <c r="D48" s="7"/>
+      <c r="A48" s="11"/>
+      <c r="D48" s="11"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="7"/>
-      <c r="D49" s="7"/>
+      <c r="A49" s="11"/>
+      <c r="D49" s="11"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="7"/>
-      <c r="D50" s="7"/>
+      <c r="A50" s="11"/>
+      <c r="D50" s="11"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="A51" s="11"/>
+      <c r="D51" s="11"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="7"/>
-      <c r="D52" s="7"/>
+      <c r="A52" s="11"/>
+      <c r="D52" s="11"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="7"/>
-      <c r="D53" s="7"/>
+      <c r="A53" s="11"/>
+      <c r="D53" s="11"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="7"/>
-      <c r="D54" s="7"/>
+      <c r="A54" s="11"/>
+      <c r="D54" s="11"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="7"/>
-      <c r="D55" s="7"/>
+      <c r="A55" s="11"/>
+      <c r="D55" s="11"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="7"/>
-      <c r="D56" s="7"/>
+      <c r="A56" s="11"/>
+      <c r="D56" s="11"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="7"/>
-      <c r="D57" s="7"/>
+      <c r="A57" s="11"/>
+      <c r="D57" s="11"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="7"/>
-      <c r="D58" s="7"/>
+      <c r="A58" s="11"/>
+      <c r="D58" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/_Out/Server/NFDataCfg/Excel_Ini/DescData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/DescData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="9990"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>Id</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Cache</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
   <si>
     <t>Desc</t>
@@ -87,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -108,29 +111,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,58 +185,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -204,32 +192,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,21 +260,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -279,43 +282,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,146 +466,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -512,6 +515,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -557,8 +573,80 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,56 +681,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -651,166 +689,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -821,15 +850,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -838,10 +870,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1233,10 +1268,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1267,395 +1302,421 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" spans="1:8">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:8">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8" t="b">
+      <c r="B3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:8">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8" t="b">
+      <c r="B4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:8">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8" t="b">
+      <c r="B5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:8">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="27.75" spans="1:8">
-      <c r="A7" s="9" t="s">
+      <c r="B6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:8">
+      <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="27.75" spans="1:8">
+      <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="C8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="D8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="E8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="F8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="G8" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="H8" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="13"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="13"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="A11" s="13"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="13"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="A13" s="13"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="13"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="13"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="13"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="A17" s="13"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="A18" s="13"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="A19" s="13"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="A20" s="13"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="13"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="A22" s="13"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="A23" s="13"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="13"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="A25" s="13"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="A26" s="13"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="A27" s="13"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="A28" s="13"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="11"/>
-      <c r="D29" s="11"/>
+      <c r="A29" s="13"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="A30" s="13"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="A31" s="13"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="11"/>
-      <c r="D32" s="11"/>
+      <c r="A32" s="13"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="11"/>
-      <c r="D33" s="11"/>
+      <c r="A33" s="13"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="A34" s="13"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="A35" s="13"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="A36" s="13"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="A37" s="13"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="A38" s="13"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="11"/>
-      <c r="D39" s="11"/>
+      <c r="A39" s="13"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="A40" s="13"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="11"/>
-      <c r="D41" s="11"/>
+      <c r="A41" s="13"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="A42" s="13"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="11"/>
-      <c r="D43" s="11"/>
+      <c r="A43" s="13"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="A44" s="13"/>
+      <c r="D44" s="13"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="A45" s="13"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="A46" s="13"/>
+      <c r="D46" s="13"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="11"/>
-      <c r="D47" s="11"/>
+      <c r="A47" s="13"/>
+      <c r="D47" s="13"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="11"/>
-      <c r="D48" s="11"/>
+      <c r="A48" s="13"/>
+      <c r="D48" s="13"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="11"/>
-      <c r="D49" s="11"/>
+      <c r="A49" s="13"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="11"/>
-      <c r="D50" s="11"/>
+      <c r="A50" s="13"/>
+      <c r="D50" s="13"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="11"/>
-      <c r="D51" s="11"/>
+      <c r="A51" s="13"/>
+      <c r="D51" s="13"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="11"/>
-      <c r="D52" s="11"/>
+      <c r="A52" s="13"/>
+      <c r="D52" s="13"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="11"/>
-      <c r="D53" s="11"/>
+      <c r="A53" s="13"/>
+      <c r="D53" s="13"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="11"/>
-      <c r="D54" s="11"/>
+      <c r="A54" s="13"/>
+      <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="11"/>
-      <c r="D55" s="11"/>
+      <c r="A55" s="13"/>
+      <c r="D55" s="13"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="11"/>
-      <c r="D56" s="11"/>
+      <c r="A56" s="13"/>
+      <c r="D56" s="13"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="11"/>
-      <c r="D57" s="11"/>
+      <c r="A57" s="13"/>
+      <c r="D57" s="13"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="11"/>
-      <c r="D58" s="11"/>
+      <c r="A58" s="13"/>
+      <c r="D58" s="13"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="13"/>
+      <c r="D59" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:H6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A7"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:H6 B7:J7">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/Server/NFDataCfg/Excel_Ini/DescData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/DescData.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Id</t>
   </si>
@@ -88,14 +101,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -109,159 +116,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,194 +136,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -591,251 +261,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -883,58 +311,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1266,42 +652,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="3" width="9.375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="3" width="9.33203125" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="20.25" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="27.75" customWidth="1"/>
-    <col min="11" max="11" width="17.75" customWidth="1"/>
-    <col min="12" max="12" width="32.75" customWidth="1"/>
-    <col min="13" max="14" width="20.25" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="32.6640625" customWidth="1"/>
+    <col min="13" max="14" width="20.1640625" customWidth="1"/>
     <col min="15" max="15" width="24" customWidth="1"/>
     <col min="16" max="17" width="21.5" customWidth="1"/>
-    <col min="18" max="18" width="15.25" customWidth="1"/>
+    <col min="18" max="18" width="15.1640625" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
     <col min="20" max="20" width="16.5" customWidth="1"/>
     <col min="21" max="21" width="19" customWidth="1"/>
-    <col min="22" max="22" width="15.25" customWidth="1"/>
-    <col min="23" max="23" width="20.25" customWidth="1"/>
-    <col min="24" max="24" width="11.625" customWidth="1"/>
-    <col min="25" max="25" width="20.25" customWidth="1"/>
-    <col min="26" max="27" width="17.75" customWidth="1"/>
+    <col min="22" max="22" width="15.1640625" customWidth="1"/>
+    <col min="23" max="23" width="20.1640625" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" customWidth="1"/>
+    <col min="25" max="25" width="20.1640625" customWidth="1"/>
+    <col min="26" max="27" width="17.6640625" customWidth="1"/>
     <col min="28" max="28" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1327,7 +713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:8">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -1353,7 +739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:8">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -1379,7 +765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:8">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1405,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:8">
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -1431,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:8">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -1457,7 +843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:8">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
@@ -1483,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="27.75" spans="1:8">
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -1509,207 +895,207 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
       <c r="D10" s="13"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
       <c r="D11" s="13"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="13"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="13"/>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
       <c r="D21" s="13"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="13"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
       <c r="D27" s="13"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="13"/>
       <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="13"/>
       <c r="D29" s="13"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="13"/>
       <c r="D30" s="13"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="13"/>
       <c r="D31" s="13"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="13"/>
       <c r="D32" s="13"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="13"/>
       <c r="D33" s="13"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="13"/>
       <c r="D34" s="13"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="13"/>
       <c r="D35" s="13"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="13"/>
       <c r="D36" s="13"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="13"/>
       <c r="D37" s="13"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="13"/>
       <c r="D38" s="13"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="13"/>
       <c r="D39" s="13"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="13"/>
       <c r="D40" s="13"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="13"/>
       <c r="D41" s="13"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
       <c r="D42" s="13"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="13"/>
       <c r="D43" s="13"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="13"/>
       <c r="D44" s="13"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="13"/>
       <c r="D45" s="13"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="13"/>
       <c r="D46" s="13"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="13"/>
       <c r="D47" s="13"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="13"/>
       <c r="D48" s="13"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="13"/>
       <c r="D49" s="13"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="13"/>
       <c r="D50" s="13"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="13"/>
       <c r="D51" s="13"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="13"/>
       <c r="D52" s="13"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="13"/>
       <c r="D53" s="13"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="13"/>
       <c r="D54" s="13"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="13"/>
       <c r="D55" s="13"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="13"/>
       <c r="D56" s="13"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="13"/>
       <c r="D57" s="13"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="13"/>
       <c r="D58" s="13"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="13"/>
       <c r="D59" s="13"/>
     </row>
@@ -1720,7 +1106,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/DescData.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/DescData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -96,13 +96,17 @@
   </si>
   <si>
     <t>对此事务的描述意思</t>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -113,6 +117,11 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -312,13 +321,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -653,41 +665,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" customWidth="1"/>
+    <col min="2" max="3" width="9.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
     <col min="5" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" customWidth="1"/>
-    <col min="12" max="12" width="32.6640625" customWidth="1"/>
-    <col min="13" max="14" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" customWidth="1"/>
+    <col min="10" max="10" width="27.6328125" customWidth="1"/>
+    <col min="11" max="11" width="17.6328125" customWidth="1"/>
+    <col min="12" max="12" width="32.6328125" customWidth="1"/>
+    <col min="13" max="14" width="20.1796875" customWidth="1"/>
     <col min="15" max="15" width="24" customWidth="1"/>
-    <col min="16" max="17" width="21.5" customWidth="1"/>
-    <col min="18" max="18" width="15.1640625" customWidth="1"/>
+    <col min="16" max="17" width="21.453125" customWidth="1"/>
+    <col min="18" max="18" width="15.1796875" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="16.5" customWidth="1"/>
+    <col min="20" max="20" width="16.453125" customWidth="1"/>
     <col min="21" max="21" width="19" customWidth="1"/>
-    <col min="22" max="22" width="15.1640625" customWidth="1"/>
-    <col min="23" max="23" width="20.1640625" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" customWidth="1"/>
-    <col min="25" max="25" width="20.1640625" customWidth="1"/>
-    <col min="26" max="27" width="17.6640625" customWidth="1"/>
+    <col min="22" max="22" width="15.1796875" customWidth="1"/>
+    <col min="23" max="23" width="20.1796875" customWidth="1"/>
+    <col min="24" max="24" width="11.6328125" customWidth="1"/>
+    <col min="25" max="25" width="20.1796875" customWidth="1"/>
+    <col min="26" max="27" width="17.6328125" customWidth="1"/>
     <col min="28" max="28" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -713,7 +725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -739,7 +751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -765,7 +777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -791,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -817,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -843,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
@@ -869,240 +881,267 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="D10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="D11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="D21" s="13"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="D27" s="13"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="D29" s="13"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="D30" s="13"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="D31" s="13"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="D32" s="13"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="D33" s="13"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="D34" s="13"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="D35" s="13"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="D36" s="13"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="D37" s="13"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="D38" s="13"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="D39" s="13"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="D40" s="13"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="D41" s="13"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="D42" s="13"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="D43" s="13"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="D44" s="13"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="D45" s="13"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="D46" s="13"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="D47" s="13"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="D48" s="13"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="D49" s="13"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="D50" s="13"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="D51" s="13"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="D52" s="13"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="D53" s="13"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="D54" s="13"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="D55" s="13"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="D56" s="13"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="D57" s="13"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="D58" s="13"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="D59" s="13"/>
     </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
+      <c r="D60" s="13"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:H6 B7:J7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:H6 B7:J8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
